--- a/Media/HGM VK API State.xlsx
+++ b/Media/HGM VK API State.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemulgm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мультимедиа\Проекты\VK_API\Media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1347A5DA-41D9-4C42-BA0D-8AE6786DCC3D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411F055C-CC19-449B-90AC-CCB471A94845}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{3015DAFD-3E8C-4674-BE87-71FFB6889819}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3015DAFD-3E8C-4674-BE87-71FFB6889819}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="460">
   <si>
     <t>Account</t>
   </si>
@@ -1648,6 +1649,18 @@
   </si>
   <si>
     <t>name_case</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -1779,6 +1792,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1791,15 +1813,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2117,8 +2131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF394BBD-EB79-427C-AD66-29939ED6F867}">
   <dimension ref="A1:J542"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView topLeftCell="A174" workbookViewId="0">
+      <selection sqref="A1:F540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2145,7 +2159,7 @@
       </c>
       <c r="E1" s="1">
         <f t="shared" ref="E1:E64" si="0">100/$C$542*$D$542</f>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F1" s="6">
         <f>100/SUM(C1:C19)*SUM(D1:D19)</f>
@@ -2168,7 +2182,7 @@
       </c>
       <c r="E2" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -2188,7 +2202,7 @@
       </c>
       <c r="E3" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -2208,7 +2222,7 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -2228,7 +2242,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -2248,7 +2262,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -2268,7 +2282,7 @@
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -2288,7 +2302,7 @@
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -2308,7 +2322,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -2328,7 +2342,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -2348,7 +2362,7 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -2368,7 +2382,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -2388,7 +2402,7 @@
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -2408,7 +2422,7 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -2428,7 +2442,7 @@
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -2448,7 +2462,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -2468,7 +2482,7 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -2488,7 +2502,7 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -2508,7 +2522,7 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -2528,7 +2542,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F20" s="6">
         <f>100/SUM(C20:C65)*SUM(D20:D65)</f>
@@ -2548,7 +2562,7 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -2565,7 +2579,7 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -2582,7 +2596,7 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -2599,7 +2613,7 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -2616,7 +2630,7 @@
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -2633,7 +2647,7 @@
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2650,7 +2664,7 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2667,7 +2681,7 @@
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -2684,7 +2698,7 @@
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -2701,7 +2715,7 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -2718,7 +2732,7 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2735,7 +2749,7 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -2752,7 +2766,7 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2769,7 +2783,7 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -2786,7 +2800,7 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -2803,7 +2817,7 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -2820,7 +2834,7 @@
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
@@ -2837,7 +2851,7 @@
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -2854,7 +2868,7 @@
       </c>
       <c r="E39" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -2871,7 +2885,7 @@
       </c>
       <c r="E40" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
@@ -2888,7 +2902,7 @@
       </c>
       <c r="E41" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -2905,7 +2919,7 @@
       </c>
       <c r="E42" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
@@ -2922,7 +2936,7 @@
       </c>
       <c r="E43" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
@@ -2939,7 +2953,7 @@
       </c>
       <c r="E44" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -2956,7 +2970,7 @@
       </c>
       <c r="E45" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
@@ -2973,7 +2987,7 @@
       </c>
       <c r="E46" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -2990,7 +3004,7 @@
       </c>
       <c r="E47" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -3007,7 +3021,7 @@
       </c>
       <c r="E48" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -3024,7 +3038,7 @@
       </c>
       <c r="E49" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -3041,7 +3055,7 @@
       </c>
       <c r="E50" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -3058,7 +3072,7 @@
       </c>
       <c r="E51" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -3075,7 +3089,7 @@
       </c>
       <c r="E52" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
@@ -3092,7 +3106,7 @@
       </c>
       <c r="E53" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
@@ -3109,7 +3123,7 @@
       </c>
       <c r="E54" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -3126,7 +3140,7 @@
       </c>
       <c r="E55" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -3143,7 +3157,7 @@
       </c>
       <c r="E56" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
@@ -3160,7 +3174,7 @@
       </c>
       <c r="E57" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -3177,7 +3191,7 @@
       </c>
       <c r="E58" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -3194,7 +3208,7 @@
       </c>
       <c r="E59" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
@@ -3211,7 +3225,7 @@
       </c>
       <c r="E60" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -3228,7 +3242,7 @@
       </c>
       <c r="E61" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -3245,7 +3259,7 @@
       </c>
       <c r="E62" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
@@ -3262,7 +3276,7 @@
       </c>
       <c r="E63" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -3279,7 +3293,7 @@
       </c>
       <c r="E64" s="1">
         <f t="shared" si="0"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -3296,7 +3310,7 @@
       </c>
       <c r="E65" s="1">
         <f t="shared" ref="E65:E128" si="1">100/$C$542*$D$542</f>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
@@ -3316,7 +3330,7 @@
       </c>
       <c r="E66" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F66" s="6">
         <f>100/SUM(C66:C73)*SUM(D66:D73)</f>
@@ -3336,7 +3350,7 @@
       </c>
       <c r="E67" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
@@ -3353,7 +3367,7 @@
       </c>
       <c r="E68" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -3370,7 +3384,7 @@
       </c>
       <c r="E69" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
@@ -3387,7 +3401,7 @@
       </c>
       <c r="E70" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -3404,7 +3418,7 @@
       </c>
       <c r="E71" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -3421,7 +3435,7 @@
       </c>
       <c r="E72" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -3438,7 +3452,7 @@
       </c>
       <c r="E73" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -3461,7 +3475,7 @@
       </c>
       <c r="E74" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F74" s="6">
         <f>100/SUM(C74:C83)*SUM(D74:D83)</f>
@@ -3472,7 +3486,7 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
         <v>113</v>
       </c>
@@ -3484,7 +3498,7 @@
       </c>
       <c r="E75" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -3492,7 +3506,7 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
     </row>
-    <row r="76" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
         <v>114</v>
       </c>
@@ -3501,7 +3515,7 @@
       </c>
       <c r="E76" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
@@ -3509,7 +3523,7 @@
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
     </row>
-    <row r="77" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
         <v>115</v>
       </c>
@@ -3518,7 +3532,7 @@
       </c>
       <c r="E77" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -3526,7 +3540,7 @@
       <c r="I77" s="6"/>
       <c r="J77" s="6"/>
     </row>
-    <row r="78" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
         <v>116</v>
       </c>
@@ -3535,7 +3549,7 @@
       </c>
       <c r="E78" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
@@ -3543,7 +3557,7 @@
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
         <v>117</v>
       </c>
@@ -3552,7 +3566,7 @@
       </c>
       <c r="E79" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -3560,7 +3574,7 @@
       <c r="I79" s="6"/>
       <c r="J79" s="6"/>
     </row>
-    <row r="80" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
         <v>118</v>
       </c>
@@ -3569,7 +3583,7 @@
       </c>
       <c r="E80" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
@@ -3577,7 +3591,7 @@
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
     </row>
-    <row r="81" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
         <v>119</v>
       </c>
@@ -3586,7 +3600,7 @@
       </c>
       <c r="E81" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -3594,7 +3608,7 @@
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
     </row>
-    <row r="82" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>120</v>
       </c>
@@ -3603,7 +3617,7 @@
       </c>
       <c r="E82" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -3611,7 +3625,7 @@
       <c r="I82" s="6"/>
       <c r="J82" s="6"/>
     </row>
-    <row r="83" spans="1:10" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>121</v>
       </c>
@@ -3620,7 +3634,7 @@
       </c>
       <c r="E83" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
@@ -3628,7 +3642,7 @@
       <c r="I83" s="6"/>
       <c r="J83" s="6"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>4</v>
       </c>
@@ -3643,11 +3657,11 @@
       </c>
       <c r="E84" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F84" s="6">
         <f>100/SUM(C84:C111)*SUM(D84:D111)</f>
-        <v>67.857142857142861</v>
+        <v>78.571428571428569</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
@@ -3666,7 +3680,7 @@
       </c>
       <c r="E85" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -3686,7 +3700,7 @@
       </c>
       <c r="E86" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -3706,7 +3720,7 @@
       </c>
       <c r="E87" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
@@ -3726,7 +3740,7 @@
       </c>
       <c r="E88" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
@@ -3743,7 +3757,7 @@
       </c>
       <c r="E89" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -3758,9 +3772,12 @@
       <c r="C90" s="1">
         <v>1</v>
       </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
       <c r="E90" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -3780,7 +3797,7 @@
       </c>
       <c r="E91" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
@@ -3797,7 +3814,7 @@
       </c>
       <c r="E92" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -3812,9 +3829,12 @@
       <c r="C93" s="1">
         <v>1</v>
       </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
       <c r="E93" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -3834,7 +3854,7 @@
       </c>
       <c r="E94" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
@@ -3854,7 +3874,7 @@
       </c>
       <c r="E95" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
@@ -3871,7 +3891,7 @@
       </c>
       <c r="E96" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -3891,7 +3911,7 @@
       </c>
       <c r="E97" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
@@ -3911,7 +3931,7 @@
       </c>
       <c r="E98" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
@@ -3926,9 +3946,12 @@
       <c r="C99" s="1">
         <v>1</v>
       </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
       <c r="E99" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -3945,7 +3968,7 @@
       </c>
       <c r="E100" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -3965,7 +3988,7 @@
       </c>
       <c r="E101" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
@@ -3985,7 +4008,7 @@
       </c>
       <c r="E102" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
@@ -4005,7 +4028,7 @@
       </c>
       <c r="E103" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -4025,7 +4048,7 @@
       </c>
       <c r="E104" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
@@ -4045,7 +4068,7 @@
       </c>
       <c r="E105" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
@@ -4062,7 +4085,7 @@
       </c>
       <c r="E106" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
@@ -4082,7 +4105,7 @@
       </c>
       <c r="E107" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
@@ -4102,7 +4125,7 @@
       </c>
       <c r="E108" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
@@ -4122,7 +4145,7 @@
       </c>
       <c r="E109" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
@@ -4142,7 +4165,7 @@
       </c>
       <c r="E110" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
@@ -4159,7 +4182,7 @@
       </c>
       <c r="E111" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
@@ -4182,7 +4205,7 @@
       </c>
       <c r="E112" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F112" s="6">
         <f>100/SUM(C112:C113)*SUM(D112:D113)</f>
@@ -4205,7 +4228,7 @@
       </c>
       <c r="E113" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F113" s="6">
         <f t="shared" ref="F113" si="2">100/SUM(C113:C114)*SUM(D113:D114)</f>
@@ -4231,7 +4254,7 @@
       </c>
       <c r="E114" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F114" s="6">
         <f>100/SUM(C114:C126)*SUM(D114:D126)</f>
@@ -4254,7 +4277,7 @@
       </c>
       <c r="E115" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
@@ -4274,7 +4297,7 @@
       </c>
       <c r="E116" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
@@ -4294,7 +4317,7 @@
       </c>
       <c r="E117" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
@@ -4314,7 +4337,7 @@
       </c>
       <c r="E118" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
@@ -4334,7 +4357,7 @@
       </c>
       <c r="E119" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
@@ -4354,7 +4377,7 @@
       </c>
       <c r="E120" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
@@ -4374,7 +4397,7 @@
       </c>
       <c r="E121" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
@@ -4394,7 +4417,7 @@
       </c>
       <c r="E122" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
@@ -4414,7 +4437,7 @@
       </c>
       <c r="E123" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
@@ -4434,7 +4457,7 @@
       </c>
       <c r="E124" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
@@ -4454,7 +4477,7 @@
       </c>
       <c r="E125" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
@@ -4474,7 +4497,7 @@
       </c>
       <c r="E126" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
@@ -4497,7 +4520,7 @@
       </c>
       <c r="E127" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F127" s="6">
         <f>100/SUM(C127:C138)*SUM(D127:D138)</f>
@@ -4520,7 +4543,7 @@
       </c>
       <c r="E128" s="1">
         <f t="shared" si="1"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
@@ -4540,7 +4563,7 @@
       </c>
       <c r="E129" s="1">
         <f t="shared" ref="E129:E192" si="3">100/$C$542*$D$542</f>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
@@ -4560,7 +4583,7 @@
       </c>
       <c r="E130" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
@@ -4580,7 +4603,7 @@
       </c>
       <c r="E131" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
@@ -4600,7 +4623,7 @@
       </c>
       <c r="E132" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
@@ -4620,7 +4643,7 @@
       </c>
       <c r="E133" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
@@ -4640,7 +4663,7 @@
       </c>
       <c r="E134" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
@@ -4660,7 +4683,7 @@
       </c>
       <c r="E135" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
@@ -4680,7 +4703,7 @@
       </c>
       <c r="E136" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
@@ -4700,7 +4723,7 @@
       </c>
       <c r="E137" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
@@ -4720,7 +4743,7 @@
       </c>
       <c r="E138" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
@@ -4743,7 +4766,7 @@
       </c>
       <c r="E139" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F139" s="6">
         <f>100/SUM(C139:C149)*SUM(D139:D149)</f>
@@ -4766,7 +4789,7 @@
       </c>
       <c r="E140" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
@@ -4786,7 +4809,7 @@
       </c>
       <c r="E141" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
@@ -4806,7 +4829,7 @@
       </c>
       <c r="E142" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
@@ -4826,7 +4849,7 @@
       </c>
       <c r="E143" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
@@ -4846,7 +4869,7 @@
       </c>
       <c r="E144" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
@@ -4866,7 +4889,7 @@
       </c>
       <c r="E145" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
@@ -4886,7 +4909,7 @@
       </c>
       <c r="E146" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
@@ -4906,7 +4929,7 @@
       </c>
       <c r="E147" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
@@ -4926,7 +4949,7 @@
       </c>
       <c r="E148" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
@@ -4946,7 +4969,7 @@
       </c>
       <c r="E149" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
@@ -4969,7 +4992,7 @@
       </c>
       <c r="E150" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F150" s="6">
         <f>100/SUM(C150:C150)*SUM(D150:D150)</f>
@@ -4995,7 +5018,7 @@
       </c>
       <c r="E151" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F151" s="6">
         <f>100/SUM(C151:C173)*SUM(D151:D173)</f>
@@ -5017,7 +5040,7 @@
       </c>
       <c r="E152" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
@@ -5036,7 +5059,7 @@
       </c>
       <c r="E153" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
@@ -5055,7 +5078,7 @@
       </c>
       <c r="E154" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
@@ -5074,7 +5097,7 @@
       </c>
       <c r="E155" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
@@ -5093,7 +5116,7 @@
       </c>
       <c r="E156" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
@@ -5112,7 +5135,7 @@
       </c>
       <c r="E157" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
@@ -5131,7 +5154,7 @@
       </c>
       <c r="E158" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
@@ -5150,7 +5173,7 @@
       </c>
       <c r="E159" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
@@ -5169,7 +5192,7 @@
       </c>
       <c r="E160" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
@@ -5188,7 +5211,7 @@
       </c>
       <c r="E161" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
@@ -5207,7 +5230,7 @@
       </c>
       <c r="E162" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
@@ -5226,7 +5249,7 @@
       </c>
       <c r="E163" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
@@ -5245,7 +5268,7 @@
       </c>
       <c r="E164" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
@@ -5264,7 +5287,7 @@
       </c>
       <c r="E165" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
@@ -5283,7 +5306,7 @@
       </c>
       <c r="E166" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
@@ -5302,7 +5325,7 @@
       </c>
       <c r="E167" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
@@ -5321,7 +5344,7 @@
       </c>
       <c r="E168" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
@@ -5340,7 +5363,7 @@
       </c>
       <c r="E169" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
@@ -5359,7 +5382,7 @@
       </c>
       <c r="E170" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
@@ -5378,7 +5401,7 @@
       </c>
       <c r="E171" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
@@ -5397,7 +5420,7 @@
       </c>
       <c r="E172" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
@@ -5416,7 +5439,7 @@
       </c>
       <c r="E173" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
@@ -5438,7 +5461,7 @@
       </c>
       <c r="E174" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F174" s="6">
         <f>100/SUM(C174:C191)*SUM(D174:D191)</f>
@@ -5460,7 +5483,7 @@
       </c>
       <c r="E175" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
@@ -5479,7 +5502,7 @@
       </c>
       <c r="E176" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="6"/>
@@ -5498,7 +5521,7 @@
       </c>
       <c r="E177" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="6"/>
@@ -5517,7 +5540,7 @@
       </c>
       <c r="E178" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="6"/>
@@ -5536,7 +5559,7 @@
       </c>
       <c r="E179" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F179" s="6"/>
       <c r="G179" s="6"/>
@@ -5555,7 +5578,7 @@
       </c>
       <c r="E180" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="6"/>
@@ -5574,7 +5597,7 @@
       </c>
       <c r="E181" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F181" s="6"/>
       <c r="G181" s="6"/>
@@ -5593,7 +5616,7 @@
       </c>
       <c r="E182" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F182" s="6"/>
       <c r="G182" s="6"/>
@@ -5612,7 +5635,7 @@
       </c>
       <c r="E183" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F183" s="6"/>
       <c r="G183" s="6"/>
@@ -5631,7 +5654,7 @@
       </c>
       <c r="E184" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="6"/>
@@ -5650,7 +5673,7 @@
       </c>
       <c r="E185" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F185" s="6"/>
       <c r="G185" s="6"/>
@@ -5669,7 +5692,7 @@
       </c>
       <c r="E186" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F186" s="6"/>
       <c r="G186" s="6"/>
@@ -5688,7 +5711,7 @@
       </c>
       <c r="E187" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F187" s="6"/>
       <c r="G187" s="6"/>
@@ -5707,7 +5730,7 @@
       </c>
       <c r="E188" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="6"/>
@@ -5726,7 +5749,7 @@
       </c>
       <c r="E189" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F189" s="6"/>
       <c r="G189" s="6"/>
@@ -5745,7 +5768,7 @@
       </c>
       <c r="E190" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F190" s="6"/>
       <c r="G190" s="6"/>
@@ -5764,7 +5787,7 @@
       </c>
       <c r="E191" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F191" s="6"/>
       <c r="G191" s="6"/>
@@ -5786,7 +5809,7 @@
       </c>
       <c r="E192" s="1">
         <f t="shared" si="3"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F192" s="6">
         <f>100/SUM(C192:C192)*SUM(D192:D192)</f>
@@ -5811,7 +5834,7 @@
       </c>
       <c r="E193" s="1">
         <f t="shared" ref="E193:E256" si="4">100/$C$542*$D$542</f>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F193" s="6">
         <f>100/SUM(C193:C243)*SUM(D193:D243)</f>
@@ -5833,7 +5856,7 @@
       </c>
       <c r="E194" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
@@ -5852,7 +5875,7 @@
       </c>
       <c r="E195" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
@@ -5871,7 +5894,7 @@
       </c>
       <c r="E196" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="6"/>
@@ -5890,7 +5913,7 @@
       </c>
       <c r="E197" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="6"/>
@@ -5909,7 +5932,7 @@
       </c>
       <c r="E198" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="6"/>
@@ -5928,7 +5951,7 @@
       </c>
       <c r="E199" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="6"/>
@@ -5947,7 +5970,7 @@
       </c>
       <c r="E200" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
@@ -5966,7 +5989,7 @@
       </c>
       <c r="E201" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="6"/>
@@ -5985,7 +6008,7 @@
       </c>
       <c r="E202" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="6"/>
@@ -6004,7 +6027,7 @@
       </c>
       <c r="E203" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="6"/>
@@ -6023,7 +6046,7 @@
       </c>
       <c r="E204" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="6"/>
@@ -6042,7 +6065,7 @@
       </c>
       <c r="E205" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="6"/>
@@ -6061,7 +6084,7 @@
       </c>
       <c r="E206" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F206" s="6"/>
       <c r="G206" s="6"/>
@@ -6080,7 +6103,7 @@
       </c>
       <c r="E207" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F207" s="6"/>
       <c r="G207" s="6"/>
@@ -6099,7 +6122,7 @@
       </c>
       <c r="E208" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="6"/>
@@ -6118,7 +6141,7 @@
       </c>
       <c r="E209" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
@@ -6137,7 +6160,7 @@
       </c>
       <c r="E210" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F210" s="6"/>
       <c r="G210" s="6"/>
@@ -6156,7 +6179,7 @@
       </c>
       <c r="E211" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
@@ -6175,7 +6198,7 @@
       </c>
       <c r="E212" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
@@ -6194,7 +6217,7 @@
       </c>
       <c r="E213" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F213" s="6"/>
       <c r="G213" s="6"/>
@@ -6213,7 +6236,7 @@
       </c>
       <c r="E214" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
@@ -6232,7 +6255,7 @@
       </c>
       <c r="E215" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
@@ -6251,7 +6274,7 @@
       </c>
       <c r="E216" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
@@ -6270,7 +6293,7 @@
       </c>
       <c r="E217" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
@@ -6289,7 +6312,7 @@
       </c>
       <c r="E218" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
@@ -6308,7 +6331,7 @@
       </c>
       <c r="E219" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F219" s="6"/>
       <c r="G219" s="6"/>
@@ -6327,7 +6350,7 @@
       </c>
       <c r="E220" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
@@ -6346,7 +6369,7 @@
       </c>
       <c r="E221" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
@@ -6365,7 +6388,7 @@
       </c>
       <c r="E222" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F222" s="6"/>
       <c r="G222" s="6"/>
@@ -6384,7 +6407,7 @@
       </c>
       <c r="E223" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F223" s="6"/>
       <c r="G223" s="6"/>
@@ -6403,7 +6426,7 @@
       </c>
       <c r="E224" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F224" s="6"/>
       <c r="G224" s="6"/>
@@ -6422,7 +6445,7 @@
       </c>
       <c r="E225" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F225" s="6"/>
       <c r="G225" s="6"/>
@@ -6441,7 +6464,7 @@
       </c>
       <c r="E226" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F226" s="6"/>
       <c r="G226" s="6"/>
@@ -6460,7 +6483,7 @@
       </c>
       <c r="E227" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F227" s="6"/>
       <c r="G227" s="6"/>
@@ -6479,7 +6502,7 @@
       </c>
       <c r="E228" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F228" s="6"/>
       <c r="G228" s="6"/>
@@ -6498,7 +6521,7 @@
       </c>
       <c r="E229" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F229" s="6"/>
       <c r="G229" s="6"/>
@@ -6517,7 +6540,7 @@
       </c>
       <c r="E230" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F230" s="6"/>
       <c r="G230" s="6"/>
@@ -6536,7 +6559,7 @@
       </c>
       <c r="E231" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F231" s="6"/>
       <c r="G231" s="6"/>
@@ -6555,7 +6578,7 @@
       </c>
       <c r="E232" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F232" s="6"/>
       <c r="G232" s="6"/>
@@ -6574,7 +6597,7 @@
       </c>
       <c r="E233" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F233" s="6"/>
       <c r="G233" s="6"/>
@@ -6593,7 +6616,7 @@
       </c>
       <c r="E234" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F234" s="6"/>
       <c r="G234" s="6"/>
@@ -6612,7 +6635,7 @@
       </c>
       <c r="E235" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F235" s="6"/>
       <c r="G235" s="6"/>
@@ -6631,7 +6654,7 @@
       </c>
       <c r="E236" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F236" s="6"/>
       <c r="G236" s="6"/>
@@ -6650,7 +6673,7 @@
       </c>
       <c r="E237" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F237" s="6"/>
       <c r="G237" s="6"/>
@@ -6669,7 +6692,7 @@
       </c>
       <c r="E238" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
@@ -6688,7 +6711,7 @@
       </c>
       <c r="E239" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F239" s="6"/>
       <c r="G239" s="6"/>
@@ -6707,7 +6730,7 @@
       </c>
       <c r="E240" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F240" s="6"/>
       <c r="G240" s="6"/>
@@ -6726,7 +6749,7 @@
       </c>
       <c r="E241" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F241" s="6"/>
       <c r="G241" s="6"/>
@@ -6745,7 +6768,7 @@
       </c>
       <c r="E242" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F242" s="6"/>
       <c r="G242" s="6"/>
@@ -6764,7 +6787,7 @@
       </c>
       <c r="E243" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F243" s="6"/>
       <c r="G243" s="6"/>
@@ -6783,7 +6806,7 @@
       </c>
       <c r="E244" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F244" s="6">
         <f>100/SUM(C244:C250)*SUM(D244:D250)</f>
@@ -6802,7 +6825,7 @@
       </c>
       <c r="E245" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F245" s="6"/>
       <c r="G245" s="6"/>
@@ -6818,7 +6841,7 @@
       </c>
       <c r="E246" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F246" s="6"/>
       <c r="G246" s="6"/>
@@ -6834,7 +6857,7 @@
       </c>
       <c r="E247" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F247" s="6"/>
       <c r="G247" s="6"/>
@@ -6850,7 +6873,7 @@
       </c>
       <c r="E248" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F248" s="6"/>
       <c r="G248" s="6"/>
@@ -6866,7 +6889,7 @@
       </c>
       <c r="E249" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F249" s="6"/>
       <c r="G249" s="6"/>
@@ -6882,7 +6905,7 @@
       </c>
       <c r="E250" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F250" s="6"/>
       <c r="G250" s="6"/>
@@ -6901,7 +6924,7 @@
       </c>
       <c r="E251" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F251" s="6">
         <f>100/SUM(C251:C256)*SUM(D251:D256)</f>
@@ -6920,7 +6943,7 @@
       </c>
       <c r="E252" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F252" s="6"/>
       <c r="G252" s="6"/>
@@ -6936,7 +6959,7 @@
       </c>
       <c r="E253" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F253" s="6"/>
       <c r="G253" s="6"/>
@@ -6952,7 +6975,7 @@
       </c>
       <c r="E254" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F254" s="6"/>
       <c r="G254" s="6"/>
@@ -6968,7 +6991,7 @@
       </c>
       <c r="E255" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F255" s="6"/>
       <c r="G255" s="6"/>
@@ -6984,7 +7007,7 @@
       </c>
       <c r="E256" s="1">
         <f t="shared" si="4"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F256" s="6"/>
       <c r="G256" s="6"/>
@@ -7006,7 +7029,7 @@
       </c>
       <c r="E257" s="1">
         <f t="shared" ref="E257:E320" si="5">100/$C$542*$D$542</f>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F257" s="6">
         <f>100/SUM(C257:C260)*SUM(D257:D260)</f>
@@ -7028,7 +7051,7 @@
       </c>
       <c r="E258" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F258" s="6"/>
       <c r="G258" s="6"/>
@@ -7047,7 +7070,7 @@
       </c>
       <c r="E259" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F259" s="6"/>
       <c r="G259" s="6"/>
@@ -7066,7 +7089,7 @@
       </c>
       <c r="E260" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F260" s="6"/>
       <c r="G260" s="6"/>
@@ -7088,7 +7111,7 @@
       </c>
       <c r="E261" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F261" s="6">
         <f>100/SUM(C261:C289)*SUM(D261:D289)</f>
@@ -7110,7 +7133,7 @@
       </c>
       <c r="E262" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F262" s="6"/>
       <c r="G262" s="6"/>
@@ -7129,7 +7152,7 @@
       </c>
       <c r="E263" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F263" s="6"/>
       <c r="G263" s="6"/>
@@ -7148,7 +7171,7 @@
       </c>
       <c r="E264" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F264" s="6"/>
       <c r="G264" s="6"/>
@@ -7167,7 +7190,7 @@
       </c>
       <c r="E265" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F265" s="6"/>
       <c r="G265" s="6"/>
@@ -7186,7 +7209,7 @@
       </c>
       <c r="E266" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F266" s="6"/>
       <c r="G266" s="6"/>
@@ -7205,7 +7228,7 @@
       </c>
       <c r="E267" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F267" s="6"/>
       <c r="G267" s="6"/>
@@ -7224,7 +7247,7 @@
       </c>
       <c r="E268" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F268" s="6"/>
       <c r="G268" s="6"/>
@@ -7243,7 +7266,7 @@
       </c>
       <c r="E269" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F269" s="6"/>
       <c r="G269" s="6"/>
@@ -7262,7 +7285,7 @@
       </c>
       <c r="E270" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F270" s="6"/>
       <c r="G270" s="6"/>
@@ -7281,7 +7304,7 @@
       </c>
       <c r="E271" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F271" s="6"/>
       <c r="G271" s="6"/>
@@ -7300,7 +7323,7 @@
       </c>
       <c r="E272" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F272" s="6"/>
       <c r="G272" s="6"/>
@@ -7319,7 +7342,7 @@
       </c>
       <c r="E273" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F273" s="6"/>
       <c r="G273" s="6"/>
@@ -7338,7 +7361,7 @@
       </c>
       <c r="E274" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F274" s="6"/>
       <c r="G274" s="6"/>
@@ -7357,7 +7380,7 @@
       </c>
       <c r="E275" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F275" s="6"/>
       <c r="G275" s="6"/>
@@ -7376,7 +7399,7 @@
       </c>
       <c r="E276" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F276" s="6"/>
       <c r="G276" s="6"/>
@@ -7395,7 +7418,7 @@
       </c>
       <c r="E277" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F277" s="6"/>
       <c r="G277" s="6"/>
@@ -7414,7 +7437,7 @@
       </c>
       <c r="E278" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F278" s="6"/>
       <c r="G278" s="6"/>
@@ -7433,7 +7456,7 @@
       </c>
       <c r="E279" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F279" s="6"/>
       <c r="G279" s="6"/>
@@ -7452,7 +7475,7 @@
       </c>
       <c r="E280" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F280" s="6"/>
       <c r="G280" s="6"/>
@@ -7471,7 +7494,7 @@
       </c>
       <c r="E281" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F281" s="6"/>
       <c r="G281" s="6"/>
@@ -7490,7 +7513,7 @@
       </c>
       <c r="E282" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F282" s="6"/>
       <c r="G282" s="6"/>
@@ -7509,7 +7532,7 @@
       </c>
       <c r="E283" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F283" s="6"/>
       <c r="G283" s="6"/>
@@ -7528,7 +7551,7 @@
       </c>
       <c r="E284" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F284" s="6"/>
       <c r="G284" s="6"/>
@@ -7547,7 +7570,7 @@
       </c>
       <c r="E285" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F285" s="6"/>
       <c r="G285" s="6"/>
@@ -7566,7 +7589,7 @@
       </c>
       <c r="E286" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F286" s="6"/>
       <c r="G286" s="6"/>
@@ -7585,7 +7608,7 @@
       </c>
       <c r="E287" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F287" s="6"/>
       <c r="G287" s="6"/>
@@ -7604,7 +7627,7 @@
       </c>
       <c r="E288" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F288" s="6"/>
       <c r="G288" s="6"/>
@@ -7623,7 +7646,7 @@
       </c>
       <c r="E289" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F289" s="6"/>
       <c r="G289" s="6"/>
@@ -7645,7 +7668,7 @@
       </c>
       <c r="E290" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F290" s="6">
         <f>100/SUM(C290:C328)*SUM(D290:D328)</f>
@@ -7667,7 +7690,7 @@
       </c>
       <c r="E291" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F291" s="6"/>
       <c r="G291" s="6"/>
@@ -7686,7 +7709,7 @@
       </c>
       <c r="E292" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F292" s="6"/>
       <c r="G292" s="6"/>
@@ -7705,7 +7728,7 @@
       </c>
       <c r="E293" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F293" s="6"/>
       <c r="G293" s="6"/>
@@ -7724,7 +7747,7 @@
       </c>
       <c r="E294" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F294" s="6"/>
       <c r="G294" s="6"/>
@@ -7743,7 +7766,7 @@
       </c>
       <c r="E295" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F295" s="6"/>
       <c r="G295" s="6"/>
@@ -7762,7 +7785,7 @@
       </c>
       <c r="E296" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F296" s="6"/>
       <c r="G296" s="6"/>
@@ -7781,7 +7804,7 @@
       </c>
       <c r="E297" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F297" s="6"/>
       <c r="G297" s="6"/>
@@ -7800,7 +7823,7 @@
       </c>
       <c r="E298" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F298" s="6"/>
       <c r="G298" s="6"/>
@@ -7819,7 +7842,7 @@
       </c>
       <c r="E299" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F299" s="6"/>
       <c r="G299" s="6"/>
@@ -7838,7 +7861,7 @@
       </c>
       <c r="E300" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F300" s="6"/>
       <c r="G300" s="6"/>
@@ -7857,7 +7880,7 @@
       </c>
       <c r="E301" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F301" s="6"/>
       <c r="G301" s="6"/>
@@ -7876,7 +7899,7 @@
       </c>
       <c r="E302" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F302" s="6"/>
       <c r="G302" s="6"/>
@@ -7895,7 +7918,7 @@
       </c>
       <c r="E303" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F303" s="6"/>
       <c r="G303" s="6"/>
@@ -7914,7 +7937,7 @@
       </c>
       <c r="E304" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F304" s="6"/>
       <c r="G304" s="6"/>
@@ -7933,7 +7956,7 @@
       </c>
       <c r="E305" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F305" s="6"/>
       <c r="G305" s="6"/>
@@ -7952,7 +7975,7 @@
       </c>
       <c r="E306" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F306" s="6"/>
       <c r="G306" s="6"/>
@@ -7971,7 +7994,7 @@
       </c>
       <c r="E307" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F307" s="6"/>
       <c r="G307" s="6"/>
@@ -7990,7 +8013,7 @@
       </c>
       <c r="E308" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F308" s="6"/>
       <c r="G308" s="6"/>
@@ -8009,7 +8032,7 @@
       </c>
       <c r="E309" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F309" s="6"/>
       <c r="G309" s="6"/>
@@ -8028,7 +8051,7 @@
       </c>
       <c r="E310" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F310" s="6"/>
       <c r="G310" s="6"/>
@@ -8047,7 +8070,7 @@
       </c>
       <c r="E311" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
@@ -8066,7 +8089,7 @@
       </c>
       <c r="E312" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F312" s="6"/>
       <c r="G312" s="6"/>
@@ -8085,7 +8108,7 @@
       </c>
       <c r="E313" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
@@ -8104,7 +8127,7 @@
       </c>
       <c r="E314" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F314" s="6"/>
       <c r="G314" s="6"/>
@@ -8123,7 +8146,7 @@
       </c>
       <c r="E315" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F315" s="6"/>
       <c r="G315" s="6"/>
@@ -8142,7 +8165,7 @@
       </c>
       <c r="E316" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F316" s="6"/>
       <c r="G316" s="6"/>
@@ -8161,7 +8184,7 @@
       </c>
       <c r="E317" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
@@ -8180,7 +8203,7 @@
       </c>
       <c r="E318" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F318" s="6"/>
       <c r="G318" s="6"/>
@@ -8199,7 +8222,7 @@
       </c>
       <c r="E319" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
@@ -8218,7 +8241,7 @@
       </c>
       <c r="E320" s="1">
         <f t="shared" si="5"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F320" s="6"/>
       <c r="G320" s="6"/>
@@ -8237,7 +8260,7 @@
       </c>
       <c r="E321" s="1">
         <f t="shared" ref="E321:E387" si="6">100/$C$542*$D$542</f>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F321" s="6"/>
       <c r="G321" s="6"/>
@@ -8256,7 +8279,7 @@
       </c>
       <c r="E322" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F322" s="6"/>
       <c r="G322" s="6"/>
@@ -8275,7 +8298,7 @@
       </c>
       <c r="E323" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
@@ -8294,7 +8317,7 @@
       </c>
       <c r="E324" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F324" s="6"/>
       <c r="G324" s="6"/>
@@ -8313,7 +8336,7 @@
       </c>
       <c r="E325" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F325" s="6"/>
       <c r="G325" s="6"/>
@@ -8332,7 +8355,7 @@
       </c>
       <c r="E326" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F326" s="6"/>
       <c r="G326" s="6"/>
@@ -8351,7 +8374,7 @@
       </c>
       <c r="E327" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F327" s="6"/>
       <c r="G327" s="6"/>
@@ -8370,7 +8393,7 @@
       </c>
       <c r="E328" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F328" s="6"/>
       <c r="G328" s="6"/>
@@ -8392,7 +8415,7 @@
       </c>
       <c r="E329" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F329" s="6">
         <f>100/SUM(C329:C343)*SUM(D329:D343)</f>
@@ -8415,7 +8438,7 @@
       </c>
       <c r="E330" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F330" s="6"/>
       <c r="G330" s="6"/>
@@ -8435,7 +8458,7 @@
       </c>
       <c r="E331" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
@@ -8455,7 +8478,7 @@
       </c>
       <c r="E332" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F332" s="6"/>
       <c r="G332" s="6"/>
@@ -8474,7 +8497,7 @@
       </c>
       <c r="E333" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
@@ -8493,7 +8516,7 @@
       </c>
       <c r="E334" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F334" s="6"/>
       <c r="G334" s="6"/>
@@ -8512,7 +8535,7 @@
       </c>
       <c r="E335" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
@@ -8531,7 +8554,7 @@
       </c>
       <c r="E336" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F336" s="6"/>
       <c r="G336" s="6"/>
@@ -8550,7 +8573,7 @@
       </c>
       <c r="E337" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F337" s="6"/>
       <c r="G337" s="6"/>
@@ -8569,7 +8592,7 @@
       </c>
       <c r="E338" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F338" s="6"/>
       <c r="G338" s="6"/>
@@ -8588,7 +8611,7 @@
       </c>
       <c r="E339" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F339" s="6"/>
       <c r="G339" s="6"/>
@@ -8607,7 +8630,7 @@
       </c>
       <c r="E340" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F340" s="6"/>
       <c r="G340" s="6"/>
@@ -8626,7 +8649,7 @@
       </c>
       <c r="E341" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F341" s="6"/>
       <c r="G341" s="6"/>
@@ -8645,7 +8668,7 @@
       </c>
       <c r="E342" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F342" s="6"/>
       <c r="G342" s="6"/>
@@ -8664,7 +8687,7 @@
       </c>
       <c r="E343" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
@@ -8686,7 +8709,7 @@
       </c>
       <c r="E344" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F344" s="6">
         <f>100/SUM(C344:C353)*SUM(D344:D353)</f>
@@ -8708,7 +8731,7 @@
       </c>
       <c r="E345" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F345" s="6"/>
       <c r="G345" s="6"/>
@@ -8727,7 +8750,7 @@
       </c>
       <c r="E346" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F346" s="6"/>
       <c r="G346" s="6"/>
@@ -8746,7 +8769,7 @@
       </c>
       <c r="E347" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
@@ -8765,7 +8788,7 @@
       </c>
       <c r="E348" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F348" s="6"/>
       <c r="G348" s="6"/>
@@ -8784,7 +8807,7 @@
       </c>
       <c r="E349" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F349" s="6"/>
       <c r="G349" s="6"/>
@@ -8803,7 +8826,7 @@
       </c>
       <c r="E350" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F350" s="6"/>
       <c r="G350" s="6"/>
@@ -8822,7 +8845,7 @@
       </c>
       <c r="E351" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F351" s="6"/>
       <c r="G351" s="6"/>
@@ -8841,7 +8864,7 @@
       </c>
       <c r="E352" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F352" s="6"/>
       <c r="G352" s="6"/>
@@ -8860,7 +8883,7 @@
       </c>
       <c r="E353" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F353" s="6"/>
       <c r="G353" s="6"/>
@@ -8882,7 +8905,7 @@
       </c>
       <c r="E354" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F354" s="6">
         <f>100/SUM(C354:C356)*SUM(D354:D356)</f>
@@ -8904,7 +8927,7 @@
       </c>
       <c r="E355" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F355" s="6"/>
       <c r="G355" s="6"/>
@@ -8923,7 +8946,7 @@
       </c>
       <c r="E356" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F356" s="6"/>
       <c r="G356" s="6"/>
@@ -8945,7 +8968,7 @@
       </c>
       <c r="E357" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F357" s="6">
         <f>100/SUM(C357:C364)*SUM(D357:D364)</f>
@@ -8967,7 +8990,7 @@
       </c>
       <c r="E358" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F358" s="6"/>
       <c r="G358" s="6"/>
@@ -8983,7 +9006,7 @@
       </c>
       <c r="E359" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F359" s="6"/>
       <c r="G359" s="6"/>
@@ -8999,7 +9022,7 @@
       </c>
       <c r="E360" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F360" s="6"/>
       <c r="G360" s="6"/>
@@ -9015,7 +9038,7 @@
       </c>
       <c r="E361" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F361" s="6"/>
       <c r="G361" s="6"/>
@@ -9031,7 +9054,7 @@
       </c>
       <c r="E362" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F362" s="6"/>
       <c r="G362" s="6"/>
@@ -9047,7 +9070,7 @@
       </c>
       <c r="E363" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F363" s="6"/>
       <c r="G363" s="6"/>
@@ -9063,7 +9086,7 @@
       </c>
       <c r="E364" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F364" s="6"/>
       <c r="G364" s="6"/>
@@ -9085,7 +9108,7 @@
       </c>
       <c r="E365" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F365" s="6">
         <f>100/SUM(C365:C372)*SUM(D365:D372)</f>
@@ -9107,7 +9130,7 @@
       </c>
       <c r="E366" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F366" s="6"/>
       <c r="G366" s="6"/>
@@ -9126,7 +9149,7 @@
       </c>
       <c r="E367" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
@@ -9145,7 +9168,7 @@
       </c>
       <c r="E368" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F368" s="6"/>
       <c r="G368" s="6"/>
@@ -9164,7 +9187,7 @@
       </c>
       <c r="E369" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F369" s="6"/>
       <c r="G369" s="6"/>
@@ -9183,7 +9206,7 @@
       </c>
       <c r="E370" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F370" s="6"/>
       <c r="G370" s="6"/>
@@ -9202,7 +9225,7 @@
       </c>
       <c r="E371" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F371" s="6"/>
       <c r="G371" s="6"/>
@@ -9221,7 +9244,7 @@
       </c>
       <c r="E372" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F372" s="6"/>
       <c r="G372" s="6"/>
@@ -9243,7 +9266,7 @@
       </c>
       <c r="E373" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F373" s="6">
         <f>100/SUM(C373:C420)*SUM(D373:D420)</f>
@@ -9265,7 +9288,7 @@
       </c>
       <c r="E374" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F374" s="6"/>
       <c r="G374" s="6"/>
@@ -9284,7 +9307,7 @@
       </c>
       <c r="E375" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F375" s="6"/>
       <c r="G375" s="6"/>
@@ -9303,7 +9326,7 @@
       </c>
       <c r="E376" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F376" s="6"/>
       <c r="G376" s="6"/>
@@ -9322,7 +9345,7 @@
       </c>
       <c r="E377" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F377" s="6"/>
       <c r="G377" s="6"/>
@@ -9341,7 +9364,7 @@
       </c>
       <c r="E378" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F378" s="6"/>
       <c r="G378" s="6"/>
@@ -9360,7 +9383,7 @@
       </c>
       <c r="E379" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F379" s="6"/>
       <c r="G379" s="6"/>
@@ -9379,7 +9402,7 @@
       </c>
       <c r="E380" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F380" s="6"/>
       <c r="G380" s="6"/>
@@ -9398,7 +9421,7 @@
       </c>
       <c r="E381" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
@@ -9417,7 +9440,7 @@
       </c>
       <c r="E382" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F382" s="6"/>
       <c r="G382" s="6"/>
@@ -9436,7 +9459,7 @@
       </c>
       <c r="E383" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F383" s="6"/>
       <c r="G383" s="6"/>
@@ -9455,7 +9478,7 @@
       </c>
       <c r="E384" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F384" s="6"/>
       <c r="G384" s="6"/>
@@ -9474,7 +9497,7 @@
       </c>
       <c r="E385" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F385" s="6"/>
       <c r="G385" s="6"/>
@@ -9493,7 +9516,7 @@
       </c>
       <c r="E386" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F386" s="6"/>
       <c r="G386" s="6"/>
@@ -9512,7 +9535,7 @@
       </c>
       <c r="E387" s="1">
         <f t="shared" si="6"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F387" s="6"/>
       <c r="G387" s="6"/>
@@ -9531,7 +9554,7 @@
       </c>
       <c r="E388" s="1">
         <f t="shared" ref="E388:E451" si="7">100/$C$542*$D$542</f>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F388" s="6"/>
       <c r="G388" s="6"/>
@@ -9550,7 +9573,7 @@
       </c>
       <c r="E389" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F389" s="6"/>
       <c r="G389" s="6"/>
@@ -9569,7 +9592,7 @@
       </c>
       <c r="E390" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F390" s="6"/>
       <c r="G390" s="6"/>
@@ -9588,7 +9611,7 @@
       </c>
       <c r="E391" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F391" s="6"/>
       <c r="G391" s="6"/>
@@ -9607,7 +9630,7 @@
       </c>
       <c r="E392" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F392" s="6"/>
       <c r="G392" s="6"/>
@@ -9626,7 +9649,7 @@
       </c>
       <c r="E393" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F393" s="6"/>
       <c r="G393" s="6"/>
@@ -9645,7 +9668,7 @@
       </c>
       <c r="E394" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F394" s="6"/>
       <c r="G394" s="6"/>
@@ -9664,7 +9687,7 @@
       </c>
       <c r="E395" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F395" s="6"/>
       <c r="G395" s="6"/>
@@ -9683,7 +9706,7 @@
       </c>
       <c r="E396" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F396" s="6"/>
       <c r="G396" s="6"/>
@@ -9702,7 +9725,7 @@
       </c>
       <c r="E397" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F397" s="6"/>
       <c r="G397" s="6"/>
@@ -9721,7 +9744,7 @@
       </c>
       <c r="E398" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F398" s="6"/>
       <c r="G398" s="6"/>
@@ -9740,7 +9763,7 @@
       </c>
       <c r="E399" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F399" s="6"/>
       <c r="G399" s="6"/>
@@ -9759,7 +9782,7 @@
       </c>
       <c r="E400" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F400" s="6"/>
       <c r="G400" s="6"/>
@@ -9778,7 +9801,7 @@
       </c>
       <c r="E401" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F401" s="6"/>
       <c r="G401" s="6"/>
@@ -9797,7 +9820,7 @@
       </c>
       <c r="E402" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F402" s="6"/>
       <c r="G402" s="6"/>
@@ -9816,7 +9839,7 @@
       </c>
       <c r="E403" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F403" s="6"/>
       <c r="G403" s="6"/>
@@ -9835,7 +9858,7 @@
       </c>
       <c r="E404" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F404" s="6"/>
       <c r="G404" s="6"/>
@@ -9854,7 +9877,7 @@
       </c>
       <c r="E405" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F405" s="6"/>
       <c r="G405" s="6"/>
@@ -9873,7 +9896,7 @@
       </c>
       <c r="E406" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F406" s="6"/>
       <c r="G406" s="6"/>
@@ -9892,7 +9915,7 @@
       </c>
       <c r="E407" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F407" s="6"/>
       <c r="G407" s="6"/>
@@ -9911,7 +9934,7 @@
       </c>
       <c r="E408" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F408" s="6"/>
       <c r="G408" s="6"/>
@@ -9930,7 +9953,7 @@
       </c>
       <c r="E409" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F409" s="6"/>
       <c r="G409" s="6"/>
@@ -9949,7 +9972,7 @@
       </c>
       <c r="E410" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F410" s="6"/>
       <c r="G410" s="6"/>
@@ -9968,7 +9991,7 @@
       </c>
       <c r="E411" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F411" s="6"/>
       <c r="G411" s="6"/>
@@ -9987,7 +10010,7 @@
       </c>
       <c r="E412" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F412" s="6"/>
       <c r="G412" s="6"/>
@@ -10006,7 +10029,7 @@
       </c>
       <c r="E413" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F413" s="6"/>
       <c r="G413" s="6"/>
@@ -10025,7 +10048,7 @@
       </c>
       <c r="E414" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F414" s="6"/>
       <c r="G414" s="6"/>
@@ -10044,7 +10067,7 @@
       </c>
       <c r="E415" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F415" s="6"/>
       <c r="G415" s="6"/>
@@ -10063,7 +10086,7 @@
       </c>
       <c r="E416" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F416" s="6"/>
       <c r="G416" s="6"/>
@@ -10082,7 +10105,7 @@
       </c>
       <c r="E417" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F417" s="6"/>
       <c r="G417" s="6"/>
@@ -10101,7 +10124,7 @@
       </c>
       <c r="E418" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F418" s="6"/>
       <c r="G418" s="6"/>
@@ -10120,7 +10143,7 @@
       </c>
       <c r="E419" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F419" s="6"/>
       <c r="G419" s="6"/>
@@ -10139,7 +10162,7 @@
       </c>
       <c r="E420" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F420" s="6"/>
       <c r="G420" s="6"/>
@@ -10161,7 +10184,7 @@
       </c>
       <c r="E421" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F421" s="6">
         <f>100/SUM(C421:C424)*SUM(D421:D424)</f>
@@ -10183,7 +10206,7 @@
       </c>
       <c r="E422" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F422" s="6"/>
       <c r="G422" s="6"/>
@@ -10202,7 +10225,7 @@
       </c>
       <c r="E423" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F423" s="6"/>
       <c r="G423" s="6"/>
@@ -10221,7 +10244,7 @@
       </c>
       <c r="E424" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F424" s="6"/>
       <c r="G424" s="6"/>
@@ -10243,7 +10266,7 @@
       </c>
       <c r="E425" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F425" s="6">
         <f>100/SUM(C425:C433)*SUM(D425:D433)</f>
@@ -10265,7 +10288,7 @@
       </c>
       <c r="E426" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F426" s="6"/>
       <c r="G426" s="6"/>
@@ -10284,7 +10307,7 @@
       </c>
       <c r="E427" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F427" s="6"/>
       <c r="G427" s="6"/>
@@ -10303,7 +10326,7 @@
       </c>
       <c r="E428" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F428" s="6"/>
       <c r="G428" s="6"/>
@@ -10322,7 +10345,7 @@
       </c>
       <c r="E429" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F429" s="6"/>
       <c r="G429" s="6"/>
@@ -10341,7 +10364,7 @@
       </c>
       <c r="E430" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F430" s="6"/>
       <c r="G430" s="6"/>
@@ -10360,7 +10383,7 @@
       </c>
       <c r="E431" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F431" s="6"/>
       <c r="G431" s="6"/>
@@ -10379,7 +10402,7 @@
       </c>
       <c r="E432" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F432" s="6"/>
       <c r="G432" s="6"/>
@@ -10398,7 +10421,7 @@
       </c>
       <c r="E433" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F433" s="6"/>
       <c r="G433" s="6"/>
@@ -10417,7 +10440,7 @@
       </c>
       <c r="E434" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F434" s="6">
         <f>100/SUM(C434:C439)*SUM(D434:D439)</f>
@@ -10436,7 +10459,7 @@
       </c>
       <c r="E435" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F435" s="6"/>
       <c r="G435" s="6"/>
@@ -10452,7 +10475,7 @@
       </c>
       <c r="E436" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F436" s="6"/>
       <c r="G436" s="6"/>
@@ -10468,7 +10491,7 @@
       </c>
       <c r="E437" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F437" s="6"/>
       <c r="G437" s="6"/>
@@ -10484,7 +10507,7 @@
       </c>
       <c r="E438" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F438" s="6"/>
       <c r="G438" s="6"/>
@@ -10500,7 +10523,7 @@
       </c>
       <c r="E439" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F439" s="6"/>
       <c r="G439" s="6"/>
@@ -10522,7 +10545,7 @@
       </c>
       <c r="E440" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F440" s="6">
         <f>100/SUM(C440:C440)*SUM(D440:D440)</f>
@@ -10547,7 +10570,7 @@
       </c>
       <c r="E441" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F441" s="6">
         <f>100/SUM(C441:C450)*SUM(D441:D450)</f>
@@ -10569,7 +10592,7 @@
       </c>
       <c r="E442" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F442" s="6"/>
       <c r="G442" s="6"/>
@@ -10585,7 +10608,7 @@
       </c>
       <c r="E443" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F443" s="6"/>
       <c r="G443" s="6"/>
@@ -10601,7 +10624,7 @@
       </c>
       <c r="E444" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F444" s="6"/>
       <c r="G444" s="6"/>
@@ -10617,7 +10640,7 @@
       </c>
       <c r="E445" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F445" s="6"/>
       <c r="G445" s="6"/>
@@ -10633,7 +10656,7 @@
       </c>
       <c r="E446" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F446" s="6"/>
       <c r="G446" s="6"/>
@@ -10649,7 +10672,7 @@
       </c>
       <c r="E447" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F447" s="6"/>
       <c r="G447" s="6"/>
@@ -10665,7 +10688,7 @@
       </c>
       <c r="E448" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F448" s="6"/>
       <c r="G448" s="6"/>
@@ -10681,7 +10704,7 @@
       </c>
       <c r="E449" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F449" s="6"/>
       <c r="G449" s="6"/>
@@ -10697,7 +10720,7 @@
       </c>
       <c r="E450" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F450" s="6"/>
       <c r="G450" s="6"/>
@@ -10719,7 +10742,7 @@
       </c>
       <c r="E451" s="1">
         <f t="shared" si="7"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F451" s="6">
         <f>100/SUM(C451:C453)*SUM(D451:D453)</f>
@@ -10741,7 +10764,7 @@
       </c>
       <c r="E452" s="1">
         <f t="shared" ref="E452:E515" si="8">100/$C$542*$D$542</f>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F452" s="6"/>
       <c r="G452" s="6"/>
@@ -10760,7 +10783,7 @@
       </c>
       <c r="E453" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F453" s="6"/>
       <c r="G453" s="6"/>
@@ -10782,7 +10805,7 @@
       </c>
       <c r="E454" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F454" s="6">
         <f>100/SUM(C454:C455)*SUM(D454:D455)</f>
@@ -10804,7 +10827,7 @@
       </c>
       <c r="E455" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F455" s="6"/>
       <c r="G455" s="6"/>
@@ -10826,7 +10849,7 @@
       </c>
       <c r="E456" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F456" s="6">
         <f>100/SUM(C456:C458)*SUM(D456:D458)</f>
@@ -10848,7 +10871,7 @@
       </c>
       <c r="E457" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F457" s="6"/>
       <c r="G457" s="6"/>
@@ -10867,7 +10890,7 @@
       </c>
       <c r="E458" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F458" s="6"/>
       <c r="G458" s="6"/>
@@ -10889,7 +10912,7 @@
       </c>
       <c r="E459" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F459" s="6">
         <f>100/SUM(C459:C474)*SUM(D459:D474)</f>
@@ -10911,7 +10934,7 @@
       </c>
       <c r="E460" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F460" s="6"/>
       <c r="G460" s="6"/>
@@ -10931,7 +10954,7 @@
       </c>
       <c r="E461" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F461" s="6"/>
       <c r="G461" s="6"/>
@@ -10951,7 +10974,7 @@
       </c>
       <c r="E462" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F462" s="6"/>
       <c r="G462" s="6"/>
@@ -10971,7 +10994,7 @@
       </c>
       <c r="E463" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F463" s="6"/>
       <c r="G463" s="6"/>
@@ -10991,7 +11014,7 @@
       </c>
       <c r="E464" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F464" s="6"/>
       <c r="G464" s="6"/>
@@ -11011,7 +11034,7 @@
       </c>
       <c r="E465" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F465" s="6"/>
       <c r="G465" s="6"/>
@@ -11031,7 +11054,7 @@
       </c>
       <c r="E466" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F466" s="6"/>
       <c r="G466" s="6"/>
@@ -11051,7 +11074,7 @@
       </c>
       <c r="E467" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F467" s="6"/>
       <c r="G467" s="6"/>
@@ -11071,7 +11094,7 @@
       </c>
       <c r="E468" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F468" s="6"/>
       <c r="G468" s="6"/>
@@ -11091,7 +11114,7 @@
       </c>
       <c r="E469" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F469" s="6"/>
       <c r="G469" s="6"/>
@@ -11111,7 +11134,7 @@
       </c>
       <c r="E470" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F470" s="6"/>
       <c r="G470" s="6"/>
@@ -11131,7 +11154,7 @@
       </c>
       <c r="E471" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F471" s="6"/>
       <c r="G471" s="6"/>
@@ -11151,7 +11174,7 @@
       </c>
       <c r="E472" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F472" s="6"/>
       <c r="G472" s="6"/>
@@ -11171,7 +11194,7 @@
       </c>
       <c r="E473" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F473" s="6"/>
       <c r="G473" s="6"/>
@@ -11191,7 +11214,7 @@
       </c>
       <c r="E474" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F474" s="6"/>
       <c r="G474" s="6"/>
@@ -11209,13 +11232,16 @@
       <c r="C475" s="1">
         <v>1</v>
       </c>
+      <c r="D475">
+        <v>1</v>
+      </c>
       <c r="E475" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F475" s="6">
         <f>100/SUM(C475:C479)*SUM(D475:D479)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G475" s="6"/>
       <c r="H475" s="6"/>
@@ -11229,9 +11255,12 @@
       <c r="C476" s="1">
         <v>1</v>
       </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
       <c r="E476" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F476" s="6"/>
       <c r="G476" s="6"/>
@@ -11246,9 +11275,12 @@
       <c r="C477" s="1">
         <v>1</v>
       </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
       <c r="E477" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F477" s="6"/>
       <c r="G477" s="6"/>
@@ -11263,9 +11295,12 @@
       <c r="C478" s="1">
         <v>1</v>
       </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
       <c r="E478" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F478" s="6"/>
       <c r="G478" s="6"/>
@@ -11280,9 +11315,12 @@
       <c r="C479" s="1">
         <v>1</v>
       </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
       <c r="E479" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F479" s="6"/>
       <c r="G479" s="6"/>
@@ -11305,7 +11343,7 @@
       </c>
       <c r="E480" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F480" s="6">
         <f>100/SUM(C480:C484)*SUM(D480:D484)</f>
@@ -11328,7 +11366,7 @@
       </c>
       <c r="E481" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F481" s="6"/>
       <c r="G481" s="6"/>
@@ -11348,7 +11386,7 @@
       </c>
       <c r="E482" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F482" s="6"/>
       <c r="G482" s="6"/>
@@ -11368,7 +11406,7 @@
       </c>
       <c r="E483" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F483" s="6"/>
       <c r="G483" s="6"/>
@@ -11388,7 +11426,7 @@
       </c>
       <c r="E484" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F484" s="6"/>
       <c r="G484" s="6"/>
@@ -11411,7 +11449,7 @@
       </c>
       <c r="E485" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F485" s="6">
         <f>100/SUM(C485:C491)*SUM(D485:D491)</f>
@@ -11434,7 +11472,7 @@
       </c>
       <c r="E486" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F486" s="6"/>
       <c r="G486" s="6"/>
@@ -11454,7 +11492,7 @@
       </c>
       <c r="E487" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F487" s="6"/>
       <c r="G487" s="6"/>
@@ -11474,7 +11512,7 @@
       </c>
       <c r="E488" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F488" s="6"/>
       <c r="G488" s="6"/>
@@ -11494,7 +11532,7 @@
       </c>
       <c r="E489" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F489" s="6"/>
       <c r="G489" s="6"/>
@@ -11514,7 +11552,7 @@
       </c>
       <c r="E490" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F490" s="6"/>
       <c r="G490" s="6"/>
@@ -11534,7 +11572,7 @@
       </c>
       <c r="E491" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F491" s="6"/>
       <c r="G491" s="6"/>
@@ -11557,7 +11595,7 @@
       </c>
       <c r="E492" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F492" s="6">
         <f>100/SUM(C492:C515)*SUM(D492:D515)</f>
@@ -11580,7 +11618,7 @@
       </c>
       <c r="E493" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F493" s="6"/>
       <c r="G493" s="6"/>
@@ -11600,7 +11638,7 @@
       </c>
       <c r="E494" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F494" s="6"/>
       <c r="G494" s="6"/>
@@ -11620,7 +11658,7 @@
       </c>
       <c r="E495" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F495" s="6"/>
       <c r="G495" s="6"/>
@@ -11640,7 +11678,7 @@
       </c>
       <c r="E496" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F496" s="6"/>
       <c r="G496" s="6"/>
@@ -11660,7 +11698,7 @@
       </c>
       <c r="E497" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F497" s="6"/>
       <c r="G497" s="6"/>
@@ -11680,7 +11718,7 @@
       </c>
       <c r="E498" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F498" s="6"/>
       <c r="G498" s="6"/>
@@ -11700,7 +11738,7 @@
       </c>
       <c r="E499" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F499" s="6"/>
       <c r="G499" s="6"/>
@@ -11720,7 +11758,7 @@
       </c>
       <c r="E500" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F500" s="6"/>
       <c r="G500" s="6"/>
@@ -11740,7 +11778,7 @@
       </c>
       <c r="E501" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F501" s="6"/>
       <c r="G501" s="6"/>
@@ -11760,7 +11798,7 @@
       </c>
       <c r="E502" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F502" s="6"/>
       <c r="G502" s="6"/>
@@ -11780,7 +11818,7 @@
       </c>
       <c r="E503" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F503" s="6"/>
       <c r="G503" s="6"/>
@@ -11800,7 +11838,7 @@
       </c>
       <c r="E504" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F504" s="6"/>
       <c r="G504" s="6"/>
@@ -11820,7 +11858,7 @@
       </c>
       <c r="E505" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F505" s="6"/>
       <c r="G505" s="6"/>
@@ -11840,7 +11878,7 @@
       </c>
       <c r="E506" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F506" s="6"/>
       <c r="G506" s="6"/>
@@ -11860,7 +11898,7 @@
       </c>
       <c r="E507" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F507" s="6"/>
       <c r="G507" s="6"/>
@@ -11880,7 +11918,7 @@
       </c>
       <c r="E508" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F508" s="6"/>
       <c r="G508" s="6"/>
@@ -11900,7 +11938,7 @@
       </c>
       <c r="E509" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F509" s="6"/>
       <c r="G509" s="6"/>
@@ -11920,7 +11958,7 @@
       </c>
       <c r="E510" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F510" s="6"/>
       <c r="G510" s="6"/>
@@ -11940,7 +11978,7 @@
       </c>
       <c r="E511" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F511" s="6"/>
       <c r="G511" s="6"/>
@@ -11960,7 +11998,7 @@
       </c>
       <c r="E512" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F512" s="6"/>
       <c r="G512" s="6"/>
@@ -11980,7 +12018,7 @@
       </c>
       <c r="E513" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F513" s="6"/>
       <c r="G513" s="6"/>
@@ -12000,7 +12038,7 @@
       </c>
       <c r="E514" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F514" s="6"/>
       <c r="G514" s="6"/>
@@ -12020,7 +12058,7 @@
       </c>
       <c r="E515" s="1">
         <f t="shared" si="8"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F515" s="6"/>
       <c r="G515" s="6"/>
@@ -12043,7 +12081,7 @@
       </c>
       <c r="E516" s="1">
         <f t="shared" ref="E516:E535" si="9">100/$C$542*$D$542</f>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F516" s="6">
         <f>100/SUM(C516:C539)*SUM(D516:D539)</f>
@@ -12066,7 +12104,7 @@
       </c>
       <c r="E517" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F517" s="6"/>
       <c r="G517" s="6"/>
@@ -12086,7 +12124,7 @@
       </c>
       <c r="E518" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F518" s="6"/>
       <c r="G518" s="6"/>
@@ -12106,7 +12144,7 @@
       </c>
       <c r="E519" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F519" s="6"/>
       <c r="G519" s="6"/>
@@ -12126,7 +12164,7 @@
       </c>
       <c r="E520" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F520" s="6"/>
       <c r="G520" s="6"/>
@@ -12146,7 +12184,7 @@
       </c>
       <c r="E521" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F521" s="6"/>
       <c r="G521" s="6"/>
@@ -12166,7 +12204,7 @@
       </c>
       <c r="E522" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F522" s="6"/>
       <c r="G522" s="6"/>
@@ -12186,7 +12224,7 @@
       </c>
       <c r="E523" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F523" s="6"/>
       <c r="G523" s="6"/>
@@ -12206,7 +12244,7 @@
       </c>
       <c r="E524" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F524" s="6"/>
       <c r="G524" s="6"/>
@@ -12226,7 +12264,7 @@
       </c>
       <c r="E525" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F525" s="6"/>
       <c r="G525" s="6"/>
@@ -12246,7 +12284,7 @@
       </c>
       <c r="E526" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F526" s="6"/>
       <c r="G526" s="6"/>
@@ -12266,7 +12304,7 @@
       </c>
       <c r="E527" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F527" s="6"/>
       <c r="G527" s="6"/>
@@ -12286,7 +12324,7 @@
       </c>
       <c r="E528" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F528" s="6"/>
       <c r="G528" s="6"/>
@@ -12306,7 +12344,7 @@
       </c>
       <c r="E529" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F529" s="6"/>
       <c r="G529" s="6"/>
@@ -12326,7 +12364,7 @@
       </c>
       <c r="E530" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F530" s="6"/>
       <c r="G530" s="6"/>
@@ -12346,7 +12384,7 @@
       </c>
       <c r="E531" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F531" s="6"/>
       <c r="G531" s="6"/>
@@ -12366,7 +12404,7 @@
       </c>
       <c r="E532" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F532" s="6"/>
       <c r="G532" s="6"/>
@@ -12386,7 +12424,7 @@
       </c>
       <c r="E533" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F533" s="6"/>
       <c r="G533" s="6"/>
@@ -12406,7 +12444,7 @@
       </c>
       <c r="E534" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F534" s="6"/>
       <c r="G534" s="6"/>
@@ -12426,7 +12464,7 @@
       </c>
       <c r="E535" s="1">
         <f t="shared" si="9"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F535" s="6"/>
       <c r="G535" s="6"/>
@@ -12446,7 +12484,7 @@
       </c>
       <c r="E536" s="1">
         <f t="shared" ref="E536:E542" si="10">100/$C$542*$D$542</f>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F536" s="6"/>
       <c r="G536" s="6"/>
@@ -12466,7 +12504,7 @@
       </c>
       <c r="E537" s="1">
         <f t="shared" si="10"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F537" s="6"/>
       <c r="G537" s="6"/>
@@ -12486,7 +12524,7 @@
       </c>
       <c r="E538" s="1">
         <f t="shared" si="10"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F538" s="6"/>
       <c r="G538" s="6"/>
@@ -12506,7 +12544,7 @@
       </c>
       <c r="E539" s="1">
         <f t="shared" si="10"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F539" s="6"/>
       <c r="G539" s="6"/>
@@ -12526,7 +12564,7 @@
       </c>
       <c r="E540" s="1">
         <f t="shared" si="10"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F540" s="6">
         <f>100/SUM(C540:C541)*SUM(D540:D541)</f>
@@ -12546,7 +12584,7 @@
       </c>
       <c r="E541" s="1">
         <f t="shared" si="10"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
     </row>
     <row r="542" spans="1:10" collapsed="1" x14ac:dyDescent="0.25">
@@ -12556,22 +12594,22 @@
       </c>
       <c r="D542" s="5">
         <f>SUM(D1:D541)</f>
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="E542" s="1">
         <f t="shared" si="10"/>
-        <v>80.675422138836765</v>
+        <v>82.176360225140712</v>
       </c>
       <c r="F542" t="s">
         <v>429</v>
       </c>
       <c r="G542">
         <f>C542-D542</f>
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B84:B111">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B84:B111">
     <sortCondition ref="B84"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
@@ -13065,7 +13103,7 @@
       <c r="A157" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:A5">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A5">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13091,21 +13129,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="8" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>433</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -13113,13 +13151,13 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="8" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="15" t="s">
         <v>436</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -13127,81 +13165,81 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="10" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="10" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="10" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="10" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="8" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="8" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="8" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="15" t="s">
         <v>450</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -13209,23 +13247,23 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="293.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="13" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="12"/>
     </row>
     <row r="21" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="13" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="8" t="s">
         <v>454</v>
       </c>
@@ -13248,4 +13286,484 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E547065-991B-4E59-9498-172629A6B248}">
+  <dimension ref="F2:H43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G2" t="s">
+        <v>456</v>
+      </c>
+      <c r="H2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="G3" t="s">
+        <v>456</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>456</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>